--- a/results/evaluation_score.xlsx
+++ b/results/evaluation_score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D01EA77-2611-1944-878C-1245AE73F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD54954-243A-E144-801C-C28AB72BED21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28360" yWindow="8760" windowWidth="27840" windowHeight="16940" activeTab="3" xr2:uid="{685F1D00-C404-8E45-A1BE-76B60F94C71A}"/>
+    <workbookView xWindow="5160" yWindow="3280" windowWidth="27840" windowHeight="16940" activeTab="6" xr2:uid="{685F1D00-C404-8E45-A1BE-76B60F94C71A}"/>
   </bookViews>
   <sheets>
     <sheet name="Locomotion" sheetId="2" r:id="rId1"/>
@@ -18,26 +18,20 @@
     <sheet name="Habitat" sheetId="4" r:id="rId3"/>
     <sheet name="Adroit" sheetId="5" r:id="rId4"/>
     <sheet name="CARLA" sheetId="1" r:id="rId5"/>
+    <sheet name="Cross-embodiment" sheetId="6" r:id="rId6"/>
+    <sheet name="Camera-view" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="107">
   <si>
     <t>HardRainSunset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,12 +355,116 @@
     <t>SRM (Video-Hard)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>drqv2(cross IIWA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drqv2(cross Kinova3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURL(cross IIWA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURL(cross Kinova3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrQ(cross IIWA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrQ(cross Kinova3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVEA(cross IIWA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVEA(cross Kinova3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM(cross IIWA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM(cross Kinova3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIE-G(cross IIWA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIE-G(cross Kinova3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGQN(cross IIWA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGQN(cross Kinova3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRL3 (Easy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRL3 (Hard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURL(Easy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURL(Hard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGQN(Easy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGQN(Hard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIE-G(Easy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIE-G(Hard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVEA(Easy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVEA(Hard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM(Easy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM(Hard)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +522,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 Light (标题)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,6 +579,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5291B6AF-4470-AA42-BBBC-04BE81767C82}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2001,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFC47D6-8FCD-1846-96A2-5A9D3FF7B72C}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4155,6 +4273,9 @@
         <f>STDEV(B132:F132)</f>
         <v>35.24075923006081</v>
       </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4396,7 +4517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69667158-9DAA-734A-ADFA-7FAF86510C07}">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -6929,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1321B384-FA5C-034B-B3DD-0803559B4AF4}">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8364,4 +8485,2592 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7660EC79-3D57-5643-9B35-42DD3462B1BA}">
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>174</v>
+      </c>
+      <c r="C4">
+        <v>137</v>
+      </c>
+      <c r="D4">
+        <v>159</v>
+      </c>
+      <c r="E4">
+        <v>170</v>
+      </c>
+      <c r="F4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(C2:C4)</f>
+        <v>49.666666666666664</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(D2:D4)</f>
+        <v>57.333333333333336</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(E2:E4)</f>
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(F2:F4)</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G5" s="4">
+        <f>AVERAGE(B5:F5)</f>
+        <v>55.333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>197</v>
+      </c>
+      <c r="C9">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>234</v>
+      </c>
+      <c r="E9">
+        <v>294</v>
+      </c>
+      <c r="F9">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <f>AVERAGE(B7:B9)</f>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(C7:C9)</f>
+        <v>90.333333333333329</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(D7:D9)</f>
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(E7:E9)</f>
+        <v>112</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(F7:F9)</f>
+        <v>123</v>
+      </c>
+      <c r="G10" s="4">
+        <f>AVERAGE(B10:F10)</f>
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="G11" s="2">
+        <f>AVERAGE(G10,G5)</f>
+        <v>76.466666666666669</v>
+      </c>
+      <c r="H11" s="2">
+        <f>STDEV(G10,G5)</f>
+        <v>29.88704661815137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>142</v>
+      </c>
+      <c r="C16">
+        <v>168</v>
+      </c>
+      <c r="D16">
+        <v>152</v>
+      </c>
+      <c r="E16">
+        <v>229</v>
+      </c>
+      <c r="F16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17">
+        <f>AVERAGE(B14:B16)</f>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C14:C16)</f>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D14:D16)</f>
+        <v>52.333333333333336</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(E14:E16)</f>
+        <v>80.333333333333329</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(F14:F16)</f>
+        <v>52</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(B17:F17)</f>
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>280</v>
+      </c>
+      <c r="C21">
+        <v>265</v>
+      </c>
+      <c r="D21">
+        <v>314</v>
+      </c>
+      <c r="E21">
+        <v>309</v>
+      </c>
+      <c r="F21">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22">
+        <f>AVERAGE(B19:B21)</f>
+        <v>100.66666666666667</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C19:C21)</f>
+        <v>94.666666666666671</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D19:D21)</f>
+        <v>122.66666666666667</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E19:E21)</f>
+        <v>115.66666666666667</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F19:F21)</f>
+        <v>122</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(B22:F22)</f>
+        <v>111.13333333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="G23" s="2">
+        <f>AVERAGE(G17,G22)</f>
+        <v>85.366666666666674</v>
+      </c>
+      <c r="H23" s="2">
+        <f>STDEV(G22,G17)</f>
+        <v>36.439569457146789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17">
+      <c r="A26" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>214</v>
+      </c>
+      <c r="C29">
+        <v>202</v>
+      </c>
+      <c r="D29">
+        <v>294</v>
+      </c>
+      <c r="E29">
+        <v>187</v>
+      </c>
+      <c r="F29">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30">
+        <f>AVERAGE(B27:B29)</f>
+        <v>77.666666666666671</v>
+      </c>
+      <c r="C30">
+        <f>AVERAGE(C27:C29)</f>
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(D27:D29)</f>
+        <v>99.666666666666671</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(E27:E29)</f>
+        <v>68</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE(F27:F29)</f>
+        <v>101.33333333333333</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(B30:F30)</f>
+        <v>85.333333333333343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17">
+      <c r="A31" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>270</v>
+      </c>
+      <c r="C34">
+        <v>267</v>
+      </c>
+      <c r="D34">
+        <v>233</v>
+      </c>
+      <c r="E34">
+        <v>305</v>
+      </c>
+      <c r="F34">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35">
+        <f>AVERAGE(B32:B34)</f>
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <f>AVERAGE(C32:C34)</f>
+        <v>105.33333333333333</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(D32:D34)</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E35">
+        <f>AVERAGE(E32:E34)</f>
+        <v>108</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(F32:F34)</f>
+        <v>92.666666666666671</v>
+      </c>
+      <c r="G35">
+        <f>AVERAGE(B35:F35)</f>
+        <v>97.466666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="G36" s="2">
+        <f>AVERAGE(G30,G35)</f>
+        <v>91.4</v>
+      </c>
+      <c r="H36" s="2">
+        <f>STDEV(G35,G30)</f>
+        <v>8.5795622783967715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17">
+      <c r="A39" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>236</v>
+      </c>
+      <c r="C42">
+        <v>294</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>213</v>
+      </c>
+      <c r="F42">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43">
+        <f>AVERAGE(B40:B42)</f>
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <f>AVERAGE(C40:C42)</f>
+        <v>112.33333333333333</v>
+      </c>
+      <c r="D43">
+        <f>AVERAGE(D40:D42)</f>
+        <v>95.666666666666671</v>
+      </c>
+      <c r="E43">
+        <f>AVERAGE(E40:E42)</f>
+        <v>76</v>
+      </c>
+      <c r="F43">
+        <f>AVERAGE(F40:F42)</f>
+        <v>102.66666666666667</v>
+      </c>
+      <c r="G43">
+        <f>AVERAGE(B43:F43)</f>
+        <v>95.333333333333343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17">
+      <c r="A44" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>237</v>
+      </c>
+      <c r="C47">
+        <v>263</v>
+      </c>
+      <c r="D47">
+        <v>274</v>
+      </c>
+      <c r="E47">
+        <v>248</v>
+      </c>
+      <c r="F47">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48">
+        <f>AVERAGE(B45:B47)</f>
+        <v>94</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE(C45:C47)</f>
+        <v>99.666666666666671</v>
+      </c>
+      <c r="D48">
+        <f>AVERAGE(D45:D47)</f>
+        <v>105.66666666666667</v>
+      </c>
+      <c r="E48">
+        <f>AVERAGE(E45:E47)</f>
+        <v>100.33333333333333</v>
+      </c>
+      <c r="F48">
+        <f>AVERAGE(F45:F47)</f>
+        <v>103</v>
+      </c>
+      <c r="G48">
+        <f>AVERAGE(B48:F48)</f>
+        <v>100.53333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="G49" s="2">
+        <f>AVERAGE(G43,G48)</f>
+        <v>97.933333333333337</v>
+      </c>
+      <c r="H49" s="2">
+        <f>STDEV(G48,G43)</f>
+        <v>3.676955262170039</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17">
+      <c r="A51" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+      <c r="F52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>38</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54">
+        <v>238</v>
+      </c>
+      <c r="C54">
+        <v>291</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>217</v>
+      </c>
+      <c r="F54">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55">
+        <f>AVERAGE(B52:B54)</f>
+        <v>89.333333333333329</v>
+      </c>
+      <c r="C55">
+        <f>AVERAGE(C52:C54)</f>
+        <v>112</v>
+      </c>
+      <c r="D55">
+        <f>AVERAGE(D52:D54)</f>
+        <v>95</v>
+      </c>
+      <c r="E55">
+        <f>AVERAGE(E52:E54)</f>
+        <v>92</v>
+      </c>
+      <c r="F55">
+        <f>AVERAGE(F52:F54)</f>
+        <v>117</v>
+      </c>
+      <c r="G55">
+        <f>AVERAGE(B55:F55)</f>
+        <v>101.06666666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17">
+      <c r="A56" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57">
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <v>42</v>
+      </c>
+      <c r="D57">
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <v>25</v>
+      </c>
+      <c r="F57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>31</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59">
+        <v>229</v>
+      </c>
+      <c r="C59">
+        <v>267</v>
+      </c>
+      <c r="D59">
+        <v>280</v>
+      </c>
+      <c r="E59">
+        <v>271</v>
+      </c>
+      <c r="F59">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60">
+        <f>AVERAGE(B57:B59)</f>
+        <v>94.666666666666671</v>
+      </c>
+      <c r="C60">
+        <f>AVERAGE(C57:C59)</f>
+        <v>107.33333333333333</v>
+      </c>
+      <c r="D60">
+        <f>AVERAGE(D57:D59)</f>
+        <v>104</v>
+      </c>
+      <c r="E60">
+        <f>AVERAGE(E57:E59)</f>
+        <v>109</v>
+      </c>
+      <c r="F60">
+        <f>AVERAGE(F57:F59)</f>
+        <v>100.33333333333333</v>
+      </c>
+      <c r="G60">
+        <f>AVERAGE(B60:F60)</f>
+        <v>103.06666666666668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="G61" s="2">
+        <f>AVERAGE(G55,G60)</f>
+        <v>102.06666666666666</v>
+      </c>
+      <c r="H61" s="2">
+        <f>STDEV(G60,G55)</f>
+        <v>1.4142135623731051</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17">
+      <c r="A64" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>35</v>
+      </c>
+      <c r="C65">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>44</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67">
+        <v>323</v>
+      </c>
+      <c r="C67">
+        <v>265</v>
+      </c>
+      <c r="D67">
+        <v>244</v>
+      </c>
+      <c r="E67">
+        <v>254</v>
+      </c>
+      <c r="F67">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68">
+        <f>AVERAGE(B65:B67)</f>
+        <v>124</v>
+      </c>
+      <c r="C68">
+        <f>AVERAGE(C65:C67)</f>
+        <v>108.66666666666667</v>
+      </c>
+      <c r="D68">
+        <f>AVERAGE(D65:D67)</f>
+        <v>97.666666666666671</v>
+      </c>
+      <c r="E68">
+        <f>AVERAGE(E65:E67)</f>
+        <v>100.66666666666667</v>
+      </c>
+      <c r="F68">
+        <f>AVERAGE(F65:F67)</f>
+        <v>115.66666666666667</v>
+      </c>
+      <c r="G68">
+        <f>AVERAGE(B68:F68)</f>
+        <v>109.33333333333334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17">
+      <c r="A69" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>88</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+      <c r="D70">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>61</v>
+      </c>
+      <c r="F70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72">
+        <v>245</v>
+      </c>
+      <c r="C72">
+        <v>183</v>
+      </c>
+      <c r="D72">
+        <v>232</v>
+      </c>
+      <c r="E72">
+        <v>257</v>
+      </c>
+      <c r="F72">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73">
+        <f>AVERAGE(B70:B72)</f>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="C73">
+        <f>AVERAGE(C70:C72)</f>
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <f>AVERAGE(D70:D72)</f>
+        <v>94.333333333333329</v>
+      </c>
+      <c r="E73">
+        <f>AVERAGE(E70:E72)</f>
+        <v>109.66666666666667</v>
+      </c>
+      <c r="F73">
+        <f>AVERAGE(F70:F72)</f>
+        <v>90.333333333333329</v>
+      </c>
+      <c r="G73">
+        <f>AVERAGE(B73:F73)</f>
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="G74" s="2">
+        <f>AVERAGE(G68,G73)</f>
+        <v>102.96666666666667</v>
+      </c>
+      <c r="H74" s="2">
+        <f>STDEV(G73,G68)</f>
+        <v>9.0038263471087152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17">
+      <c r="A77" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>35</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>46</v>
+      </c>
+      <c r="F79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80">
+        <v>231</v>
+      </c>
+      <c r="C80">
+        <v>275</v>
+      </c>
+      <c r="D80">
+        <v>237</v>
+      </c>
+      <c r="E80">
+        <v>324</v>
+      </c>
+      <c r="F80">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81">
+        <f>AVERAGE(B78:B80)</f>
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <f>AVERAGE(C78:C80)</f>
+        <v>102.33333333333333</v>
+      </c>
+      <c r="D81">
+        <f>AVERAGE(D78:D80)</f>
+        <v>87</v>
+      </c>
+      <c r="E81">
+        <f>AVERAGE(E78,E79,E80)</f>
+        <v>135</v>
+      </c>
+      <c r="F81">
+        <f>AVERAGE(F78:F80)</f>
+        <v>89.333333333333329</v>
+      </c>
+      <c r="G81">
+        <f>AVERAGE(B81:F81)</f>
+        <v>98.533333333333331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17">
+      <c r="A82" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>24</v>
+      </c>
+      <c r="E83">
+        <v>37</v>
+      </c>
+      <c r="F83">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>42</v>
+      </c>
+      <c r="E84">
+        <v>13</v>
+      </c>
+      <c r="F84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85">
+        <v>250</v>
+      </c>
+      <c r="C85">
+        <v>267</v>
+      </c>
+      <c r="D85">
+        <v>252</v>
+      </c>
+      <c r="E85">
+        <v>312</v>
+      </c>
+      <c r="F85">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="B86">
+        <f>AVERAGE(B83:B85)</f>
+        <v>92.333333333333329</v>
+      </c>
+      <c r="C86">
+        <f>AVERAGE(C83:C85)</f>
+        <v>104</v>
+      </c>
+      <c r="D86">
+        <f>AVERAGE(D83:D85)</f>
+        <v>106</v>
+      </c>
+      <c r="E86">
+        <f>AVERAGE(E83,E85,E84)</f>
+        <v>120.66666666666667</v>
+      </c>
+      <c r="F86">
+        <f>AVERAGE(F83:F85)</f>
+        <v>110</v>
+      </c>
+      <c r="G86">
+        <f>AVERAGE(B86:F86)</f>
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="G87" s="2">
+        <f>AVERAGE(G81,G86)</f>
+        <v>102.56666666666666</v>
+      </c>
+      <c r="H87" s="2">
+        <f>STDEV(G86,G81)</f>
+        <v>5.7039947015714807</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0BF6A4-46DD-C440-8A72-D8ED8F68089A}">
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>93</v>
+      </c>
+      <c r="E2">
+        <v>93</v>
+      </c>
+      <c r="F2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>62.333333333333336</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(C2:C4)</f>
+        <v>59.666666666666664</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(D2:D4)</f>
+        <v>60.666666666666664</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(E2:E4)</f>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(F2:F4)</f>
+        <v>66</v>
+      </c>
+      <c r="G5" s="2">
+        <f>AVERAGE(B5:F5)</f>
+        <v>60.666666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" s="2">
+        <f>STDEV(B5:F5)</f>
+        <v>4.1298372311212903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13">
+        <f>AVERAGE(B10:B12)</f>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C10:C12)</f>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D10:D12)</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E10:E12)</f>
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(F10:F12)</f>
+        <v>28</v>
+      </c>
+      <c r="G13" s="2">
+        <f>AVERAGE(B13:F13)</f>
+        <v>21.933333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" s="2">
+        <f>STDEV(B13:F13)</f>
+        <v>4.6986995836909795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>88</v>
+      </c>
+      <c r="D17">
+        <v>98</v>
+      </c>
+      <c r="E17">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20">
+        <f>AVERAGE(B17:B19)</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C17:C19)</f>
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D17:D19)</f>
+        <v>59.666666666666664</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(E17:E19)</f>
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F17:F19)</f>
+        <v>61.333333333333336</v>
+      </c>
+      <c r="G20" s="2">
+        <f>AVERAGE(B20:F20)</f>
+        <v>61.133333333333326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="G21" s="2">
+        <f>STDEV(B20:F20)</f>
+        <v>4.7057883977548816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27">
+        <f>AVERAGE(B24:B26)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE(C24:C26)</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(D24:D26)</f>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E24:E26)</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(F24:F26)</f>
+        <v>22</v>
+      </c>
+      <c r="G27" s="2">
+        <f>AVERAGE(B27:F27)</f>
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="G28" s="2">
+        <f>STDEV(B27:F27)</f>
+        <v>4.5619196738994789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>77</v>
+      </c>
+      <c r="C34">
+        <v>79</v>
+      </c>
+      <c r="D34">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>66</v>
+      </c>
+      <c r="F34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35">
+        <f>AVERAGE(B32:B34)</f>
+        <v>70.333333333333329</v>
+      </c>
+      <c r="C35">
+        <f>AVERAGE(C32:C34)</f>
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGE(D32:D34)</f>
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <f>AVERAGE(E32:E34)</f>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="F35">
+        <f>AVERAGE(F32:F34)</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="G35" s="2">
+        <f>AVERAGE(B35:F35)</f>
+        <v>73.13333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="G36" s="2">
+        <f>STDEV(B35:F35)</f>
+        <v>3.1850344494910017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>78</v>
+      </c>
+      <c r="E40">
+        <v>97</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>43</v>
+      </c>
+      <c r="E42">
+        <v>32</v>
+      </c>
+      <c r="F42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43">
+        <f>AVERAGE(B40:B42)</f>
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <f>AVERAGE(C40:C42)</f>
+        <v>47.333333333333336</v>
+      </c>
+      <c r="D43">
+        <f>AVERAGE(D40:D42)</f>
+        <v>55.666666666666664</v>
+      </c>
+      <c r="E43">
+        <f>AVERAGE(E40:E42)</f>
+        <v>57</v>
+      </c>
+      <c r="F43">
+        <f>AVERAGE(F40:F42)</f>
+        <v>48</v>
+      </c>
+      <c r="G43" s="2">
+        <f>AVERAGE(B43:F43)</f>
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="G44" s="2">
+        <f>STDEV(B43:F43)</f>
+        <v>4.5667883195475074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <v>81</v>
+      </c>
+      <c r="D48">
+        <v>84</v>
+      </c>
+      <c r="E48">
+        <v>93</v>
+      </c>
+      <c r="F48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>59</v>
+      </c>
+      <c r="D49">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>60</v>
+      </c>
+      <c r="F49">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>69</v>
+      </c>
+      <c r="C50">
+        <v>76</v>
+      </c>
+      <c r="D50">
+        <v>63</v>
+      </c>
+      <c r="E50">
+        <v>74</v>
+      </c>
+      <c r="F50">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51">
+        <f>AVERAGE(B48:B50)</f>
+        <v>69.666666666666671</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE(C48:C50)</f>
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <f>AVERAGE(D48:D50)</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="E51">
+        <f>AVERAGE(E48:E50)</f>
+        <v>75.666666666666671</v>
+      </c>
+      <c r="F51">
+        <f>AVERAGE(F48:F50)</f>
+        <v>71</v>
+      </c>
+      <c r="G51" s="2">
+        <f>AVERAGE(B51:F51)</f>
+        <v>71.333333333333343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="G52" s="2">
+        <f>STDEV(B51:F51)</f>
+        <v>2.7888667551135877</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="F56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58">
+        <f>AVERAGE(B55:B57)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C58">
+        <f>AVERAGE(C55:C57)</f>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="D58">
+        <f>AVERAGE(D55:D57)</f>
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <f>AVERAGE(E55:E57)</f>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="F58">
+        <f>AVERAGE(F55:F57)</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="G58" s="2">
+        <f>AVERAGE(B58:F58)</f>
+        <v>16.133333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="G59" s="2">
+        <f>STDEV(B58:F58)</f>
+        <v>3.0695638488590227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="C63">
+        <v>39</v>
+      </c>
+      <c r="D63">
+        <v>65</v>
+      </c>
+      <c r="E63">
+        <v>52</v>
+      </c>
+      <c r="F63">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>44</v>
+      </c>
+      <c r="D64">
+        <v>44</v>
+      </c>
+      <c r="E64">
+        <v>50</v>
+      </c>
+      <c r="F64">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65">
+        <v>51</v>
+      </c>
+      <c r="C65">
+        <v>31</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="B66">
+        <f>AVERAGE(B63:B65)</f>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="C66">
+        <f>AVERAGE(C63:C65)</f>
+        <v>38</v>
+      </c>
+      <c r="D66">
+        <f>AVERAGE(D63:D65)</f>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="E66">
+        <f>AVERAGE(E63:E65)</f>
+        <v>34.666666666666664</v>
+      </c>
+      <c r="F66">
+        <f>AVERAGE(F63:F65)</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G66" s="2">
+        <f>AVERAGE(B66:F66)</f>
+        <v>42.066666666666663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="G67" s="2">
+        <f>STDEV(B66:F66)</f>
+        <v>6.9298067954469227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>13</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74">
+        <f>AVERAGE(B71:B73)</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="C74">
+        <f>AVERAGE(C71:C73)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D74">
+        <f>AVERAGE(D71:D73)</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="E74">
+        <f>AVERAGE(E71:E73)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F74">
+        <f>AVERAGE(F71:F73)</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="G74" s="2">
+        <f>AVERAGE(B74:F74)</f>
+        <v>9.9333333333333336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="G75" s="2">
+        <f>STDEV(B74:F74)</f>
+        <v>2.9944392908634279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79">
+        <v>54</v>
+      </c>
+      <c r="C79">
+        <v>90</v>
+      </c>
+      <c r="D79">
+        <v>90</v>
+      </c>
+      <c r="E79">
+        <v>71</v>
+      </c>
+      <c r="F79">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80">
+        <v>48</v>
+      </c>
+      <c r="C80">
+        <v>51</v>
+      </c>
+      <c r="D80">
+        <v>49</v>
+      </c>
+      <c r="E80">
+        <v>52</v>
+      </c>
+      <c r="F80">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>44</v>
+      </c>
+      <c r="D81">
+        <v>43</v>
+      </c>
+      <c r="E81">
+        <v>26</v>
+      </c>
+      <c r="F81">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="B82">
+        <f>AVERAGE(B79:B81)</f>
+        <v>50.666666666666664</v>
+      </c>
+      <c r="C82">
+        <f>AVERAGE(C79:C81)</f>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="D82">
+        <f>AVERAGE(D79:D81)</f>
+        <v>60.666666666666664</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(E79:E81)</f>
+        <v>49.666666666666664</v>
+      </c>
+      <c r="F82">
+        <f>AVERAGE(F79:F81)</f>
+        <v>49</v>
+      </c>
+      <c r="G82" s="2">
+        <f>AVERAGE(B82:F82)</f>
+        <v>54.333333333333329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="G83" s="2">
+        <f>STDEV(B82:F82)</f>
+        <v>6.2760567945876335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>23</v>
+      </c>
+      <c r="D87">
+        <v>23</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>11</v>
+      </c>
+      <c r="E88">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90">
+        <f>AVERAGE(B87:B89)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="C90">
+        <f>AVERAGE(C87:C89)</f>
+        <v>18</v>
+      </c>
+      <c r="D90">
+        <f>AVERAGE(D87:D89)</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="E90">
+        <f>AVERAGE(E87:E89)</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="F90">
+        <f>AVERAGE(F87:F89)</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="G90" s="2">
+        <f>AVERAGE(B90:F90)</f>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="G91" s="2">
+        <f>STDEV(B90:F90)</f>
+        <v>2.9287843515318404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>